--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.77834748328366</v>
+        <v>7.038349</v>
       </c>
       <c r="H2">
-        <v>6.77834748328366</v>
+        <v>21.115047</v>
       </c>
       <c r="I2">
-        <v>0.9002673183130643</v>
+        <v>0.8947789352175559</v>
       </c>
       <c r="J2">
-        <v>0.9002673183130643</v>
+        <v>0.894778935217556</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>14.14126542047087</v>
+        <v>15.82808791953133</v>
       </c>
       <c r="R2">
-        <v>14.14126542047087</v>
+        <v>142.452791275782</v>
       </c>
       <c r="S2">
-        <v>0.03094066916330751</v>
+        <v>0.03212519639431461</v>
       </c>
       <c r="T2">
-        <v>0.03094066916330751</v>
+        <v>0.03212519639431461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.77834748328366</v>
+        <v>7.038349</v>
       </c>
       <c r="H3">
-        <v>6.77834748328366</v>
+        <v>21.115047</v>
       </c>
       <c r="I3">
-        <v>0.9002673183130643</v>
+        <v>0.8947789352175559</v>
       </c>
       <c r="J3">
-        <v>0.9002673183130643</v>
+        <v>0.894778935217556</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>300.1944936886283</v>
+        <v>311.7288971648237</v>
       </c>
       <c r="R3">
-        <v>300.1944936886283</v>
+        <v>2805.560074483413</v>
       </c>
       <c r="S3">
-        <v>0.6568166453067801</v>
+        <v>0.6326949972804793</v>
       </c>
       <c r="T3">
-        <v>0.6568166453067801</v>
+        <v>0.6326949972804794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.77834748328366</v>
+        <v>7.038349</v>
       </c>
       <c r="H4">
-        <v>6.77834748328366</v>
+        <v>21.115047</v>
       </c>
       <c r="I4">
-        <v>0.9002673183130643</v>
+        <v>0.8947789352175559</v>
       </c>
       <c r="J4">
-        <v>0.9002673183130643</v>
+        <v>0.894778935217556</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>97.12654736028247</v>
+        <v>113.3006981288923</v>
       </c>
       <c r="R4">
-        <v>97.12654736028247</v>
+        <v>1019.706283160031</v>
       </c>
       <c r="S4">
-        <v>0.2125100038429767</v>
+        <v>0.229958741542762</v>
       </c>
       <c r="T4">
-        <v>0.2125100038429767</v>
+        <v>0.2299587415427621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0580817761250227</v>
+        <v>0.09030199999999999</v>
       </c>
       <c r="H5">
-        <v>0.0580817761250227</v>
+        <v>0.270906</v>
       </c>
       <c r="I5">
-        <v>0.007714140498681447</v>
+        <v>0.01148001149247014</v>
       </c>
       <c r="J5">
-        <v>0.007714140498681447</v>
+        <v>0.01148001149247014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>0.1211725740384181</v>
+        <v>0.2030743282706667</v>
       </c>
       <c r="R5">
-        <v>0.1211725740384181</v>
+        <v>1.827668954436</v>
       </c>
       <c r="S5">
-        <v>0.0002651219967600495</v>
+        <v>0.0004121661890877246</v>
       </c>
       <c r="T5">
-        <v>0.0002651219967600495</v>
+        <v>0.0004121661890877247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0580817761250227</v>
+        <v>0.09030199999999999</v>
       </c>
       <c r="H6">
-        <v>0.0580817761250227</v>
+        <v>0.270906</v>
       </c>
       <c r="I6">
-        <v>0.007714140498681447</v>
+        <v>0.01148001149247014</v>
       </c>
       <c r="J6">
-        <v>0.007714140498681447</v>
+        <v>0.01148001149247014</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>2.572283203153366</v>
+        <v>3.999480968019333</v>
       </c>
       <c r="R6">
-        <v>2.572283203153366</v>
+        <v>35.995328712174</v>
       </c>
       <c r="S6">
-        <v>0.005628079327885997</v>
+        <v>0.008117475226707546</v>
       </c>
       <c r="T6">
-        <v>0.005628079327885997</v>
+        <v>0.008117475226707548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0580817761250227</v>
+        <v>0.09030199999999999</v>
       </c>
       <c r="H7">
-        <v>0.0580817761250227</v>
+        <v>0.270906</v>
       </c>
       <c r="I7">
-        <v>0.007714140498681447</v>
+        <v>0.01148001149247014</v>
       </c>
       <c r="J7">
-        <v>0.007714140498681447</v>
+        <v>0.01148001149247014</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>0.8322503963522853</v>
+        <v>1.453647672548666</v>
       </c>
       <c r="R7">
-        <v>0.8322503963522853</v>
+        <v>13.082829052938</v>
       </c>
       <c r="S7">
-        <v>0.001820939174035401</v>
+        <v>0.00295037007667487</v>
       </c>
       <c r="T7">
-        <v>0.001820939174035401</v>
+        <v>0.002950370076674871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.487548192621428</v>
+        <v>0.4911496666666667</v>
       </c>
       <c r="H8">
-        <v>0.487548192621428</v>
+        <v>1.473449</v>
       </c>
       <c r="I8">
-        <v>0.06475379213032685</v>
+        <v>0.06243941239237462</v>
       </c>
       <c r="J8">
-        <v>0.06475379213032685</v>
+        <v>0.06243941239237463</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>1.017142956175289</v>
+        <v>1.104514724354889</v>
       </c>
       <c r="R8">
-        <v>1.017142956175289</v>
+        <v>9.940632519194001</v>
       </c>
       <c r="S8">
-        <v>0.002225478609096094</v>
+        <v>0.00224175861422456</v>
       </c>
       <c r="T8">
-        <v>0.002225478609096094</v>
+        <v>0.002241758614224561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.487548192621428</v>
+        <v>0.4911496666666667</v>
       </c>
       <c r="H9">
-        <v>0.487548192621428</v>
+        <v>1.473449</v>
       </c>
       <c r="I9">
-        <v>0.06475379213032685</v>
+        <v>0.06243941239237462</v>
       </c>
       <c r="J9">
-        <v>0.06475379213032685</v>
+        <v>0.06243941239237463</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>21.59217762053916</v>
+        <v>21.75304804193011</v>
       </c>
       <c r="R9">
-        <v>21.59217762053916</v>
+        <v>195.777432377371</v>
       </c>
       <c r="S9">
-        <v>0.04724304398567954</v>
+        <v>0.0441506860509439</v>
       </c>
       <c r="T9">
-        <v>0.04724304398567954</v>
+        <v>0.0441506860509439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.487548192621428</v>
+        <v>0.4911496666666667</v>
       </c>
       <c r="H10">
-        <v>0.487548192621428</v>
+        <v>1.473449</v>
       </c>
       <c r="I10">
-        <v>0.06475379213032685</v>
+        <v>0.06243941239237462</v>
       </c>
       <c r="J10">
-        <v>0.06475379213032685</v>
+        <v>0.06243941239237463</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N10">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q10">
-        <v>6.986049732305172</v>
+        <v>7.906342825441888</v>
       </c>
       <c r="R10">
-        <v>6.986049732305172</v>
+        <v>71.157085428977</v>
       </c>
       <c r="S10">
-        <v>0.01528526953555122</v>
+        <v>0.01604696772720616</v>
       </c>
       <c r="T10">
-        <v>0.01528526953555122</v>
+        <v>0.01604696772720616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.161870622734604</v>
+        <v>0.1894393333333333</v>
       </c>
       <c r="H11">
-        <v>0.161870622734604</v>
+        <v>0.568318</v>
       </c>
       <c r="I11">
-        <v>0.02149887296311234</v>
+        <v>0.02408325091130372</v>
       </c>
       <c r="J11">
-        <v>0.02149887296311234</v>
+        <v>0.02408325091130372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N11">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q11">
-        <v>0.3377011056916259</v>
+        <v>0.4260178663231111</v>
       </c>
       <c r="R11">
-        <v>0.3377011056916259</v>
+        <v>3.834160796908</v>
       </c>
       <c r="S11">
-        <v>0.0007388799995340035</v>
+        <v>0.0008646595654948856</v>
       </c>
       <c r="T11">
-        <v>0.0007388799995340035</v>
+        <v>0.0008646595654948858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.161870622734604</v>
+        <v>0.1894393333333333</v>
       </c>
       <c r="H12">
-        <v>0.161870622734604</v>
+        <v>0.568318</v>
       </c>
       <c r="I12">
-        <v>0.02149887296311234</v>
+        <v>0.02408325091130372</v>
       </c>
       <c r="J12">
-        <v>0.02149887296311234</v>
+        <v>0.02408325091130372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N12">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q12">
-        <v>7.168807700507187</v>
+        <v>8.390279376546889</v>
       </c>
       <c r="R12">
-        <v>7.168807700507187</v>
+        <v>75.512514388922</v>
       </c>
       <c r="S12">
-        <v>0.01568513854747932</v>
+        <v>0.01702918091844396</v>
       </c>
       <c r="T12">
-        <v>0.01568513854747932</v>
+        <v>0.01702918091844396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.161870622734604</v>
+        <v>0.1894393333333333</v>
       </c>
       <c r="H13">
-        <v>0.161870622734604</v>
+        <v>0.568318</v>
       </c>
       <c r="I13">
-        <v>0.02149887296311234</v>
+        <v>0.02408325091130372</v>
       </c>
       <c r="J13">
-        <v>0.02149887296311234</v>
+        <v>0.02408325091130372</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N13">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q13">
-        <v>2.319434750732888</v>
+        <v>3.049523221957111</v>
       </c>
       <c r="R13">
-        <v>2.319434750732888</v>
+        <v>27.445708997614</v>
       </c>
       <c r="S13">
-        <v>0.005074854416099014</v>
+        <v>0.006189410427364875</v>
       </c>
       <c r="T13">
-        <v>0.005074854416099014</v>
+        <v>0.006189410427364876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0434127852041224</v>
+        <v>0.05678</v>
       </c>
       <c r="H14">
-        <v>0.0434127852041224</v>
+        <v>0.17034</v>
       </c>
       <c r="I14">
-        <v>0.005765876094815246</v>
+        <v>0.007218389986295482</v>
       </c>
       <c r="J14">
-        <v>0.005765876094815246</v>
+        <v>0.007218389986295483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N14">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q14">
-        <v>0.09056952593937928</v>
+        <v>0.1276888702266667</v>
       </c>
       <c r="R14">
-        <v>0.09056952593937928</v>
+        <v>1.14919983204</v>
       </c>
       <c r="S14">
-        <v>0.000198163435523341</v>
+        <v>0.0002591614384664903</v>
       </c>
       <c r="T14">
-        <v>0.000198163435523341</v>
+        <v>0.0002591614384664903</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0434127852041224</v>
+        <v>0.05678</v>
       </c>
       <c r="H15">
-        <v>0.0434127852041224</v>
+        <v>0.17034</v>
       </c>
       <c r="I15">
-        <v>0.005765876094815246</v>
+        <v>0.007218389986295482</v>
       </c>
       <c r="J15">
-        <v>0.005765876094815246</v>
+        <v>0.007218389986295483</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q15">
-        <v>1.92263366640676</v>
+        <v>2.514789587873334</v>
       </c>
       <c r="R15">
-        <v>1.92263366640676</v>
+        <v>22.63310629086</v>
       </c>
       <c r="S15">
-        <v>0.004206665416831394</v>
+        <v>0.005104097842489142</v>
       </c>
       <c r="T15">
-        <v>0.004206665416831394</v>
+        <v>0.005104097842489143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0434127852041224</v>
+        <v>0.05678</v>
       </c>
       <c r="H16">
-        <v>0.0434127852041224</v>
+        <v>0.17034</v>
       </c>
       <c r="I16">
-        <v>0.005765876094815246</v>
+        <v>0.007218389986295482</v>
       </c>
       <c r="J16">
-        <v>0.005765876094815246</v>
+        <v>0.007218389986295483</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N16">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q16">
-        <v>0.6220592775110039</v>
+        <v>0.9140231096466666</v>
       </c>
       <c r="R16">
-        <v>0.6220592775110039</v>
+        <v>8.22620798682</v>
       </c>
       <c r="S16">
-        <v>0.001361047242460511</v>
+        <v>0.00185513070533985</v>
       </c>
       <c r="T16">
-        <v>0.001361047242460511</v>
+        <v>0.001855130705339851</v>
       </c>
     </row>
   </sheetData>
